--- a/doc-contents/_components/xlsx-to-html-chart/test-file.xlsx
+++ b/doc-contents/_components/xlsx-to-html-chart/test-file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/_components/xlsx-to-html-chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EAABC5-7329-2641-AE15-6E4A8CE5239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E660492C-574F-A743-9E59-605ACCD8A7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6820" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{73274178-8829-3E42-AE5B-34F9C664A0A8}"/>
+    <workbookView xWindow="2040" yWindow="940" windowWidth="29140" windowHeight="17440" xr2:uid="{73274178-8829-3E42-AE5B-34F9C664A0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Sheet" sheetId="1" r:id="rId1"/>
@@ -250,9 +250,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -269,15 +268,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Test Sheet'!$B$4:$B$9</c:f>
@@ -326,6 +339,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0B5-6D46-9C6D-6CFF0DF3E73A}"/>
@@ -340,11 +354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="173112048"/>
         <c:axId val="1223435071"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="173112048"/>
         <c:scaling>
@@ -449,7 +463,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1223435071"/>
@@ -2038,13 +2052,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -2396,7 +2410,7 @@
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/doc-contents/_components/xlsx-to-html-chart/test-file.xlsx
+++ b/doc-contents/_components/xlsx-to-html-chart/test-file.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/_components/xlsx-to-html-chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E660492C-574F-A743-9E59-605ACCD8A7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A134D-3B67-1C49-8DFC-DFC11FFFF78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="940" windowWidth="29140" windowHeight="17440" xr2:uid="{73274178-8829-3E42-AE5B-34F9C664A0A8}"/>
+    <workbookView xWindow="2080" yWindow="920" windowWidth="29140" windowHeight="17440" xr2:uid="{73274178-8829-3E42-AE5B-34F9C664A0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Test Sheet'!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Test Sheet'!$B$4:$B$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -213,8 +217,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>c1</a:t>
+              <a:t>Test</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Chart 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -665,8 +674,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>c2</a:t>
+              <a:t>Test</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Chart 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -702,7 +716,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -872,7 +886,8 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2410,7 +2425,7 @@
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
